--- a/05.cleaning/04.project.names/rev.02/project.names.from.eslam.xlsx
+++ b/05.cleaning/04.project.names/rev.02/project.names.from.eslam.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/rev.01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/rev.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{561204CC-18E6-4CF0-8A5E-FD448707163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A34A80-1D3D-4589-83A5-E5F096630227}"/>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3458,8 +3458,8 @@
   <dimension ref="A1:F384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/05.cleaning/04.project.names/rev.02/project.names.from.eslam.xlsx
+++ b/05.cleaning/04.project.names/rev.02/project.names.from.eslam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/rev.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{561204CC-18E6-4CF0-8A5E-FD448707163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A34A80-1D3D-4589-83A5-E5F096630227}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{561204CC-18E6-4CF0-8A5E-FD448707163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4120325B-ECB7-4625-9CC3-4520D7765656}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="484">
   <si>
     <t>PK #107</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>Abo Ghaleb</t>
   </si>
   <si>
-    <t>D0085</t>
-  </si>
-  <si>
     <t>Alfa New Central Labs</t>
   </si>
   <si>
@@ -1427,9 +1424,6 @@
     <t>sadly benban is not in invoicing</t>
   </si>
   <si>
-    <t>check elco steel vo ifseperate contract</t>
-  </si>
-  <si>
     <t>Hyper One Badr</t>
   </si>
   <si>
@@ -1485,6 +1479,21 @@
   </si>
   <si>
     <t>operation</t>
+  </si>
+  <si>
+    <t>Abou Ghaleb Bridge</t>
+  </si>
+  <si>
+    <t>mesh sodic, 7aga lewa7dha</t>
+  </si>
+  <si>
+    <t>2asrawy - men 2ayam sayedna 3akroot</t>
+  </si>
+  <si>
+    <t>check elco steel vo if seperate contract</t>
+  </si>
+  <si>
+    <t>lekela 2 contracts , old new</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1573,6 +1582,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3457,9 +3469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E5259-9503-47C6-827D-510B845B8653}">
   <dimension ref="A1:F384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,17 +3485,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>315</v>
@@ -3498,7 +3510,7 @@
         <v>321</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3523,16 +3535,25 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" t="s">
-        <v>323</v>
+        <v>479</v>
+      </c>
+      <c r="E4">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3612,7 +3633,7 @@
         <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11">
         <v>154</v>
@@ -3626,11 +3647,14 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E12">
         <v>177</v>
       </c>
+      <c r="F12" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -3640,7 +3664,7 @@
         <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E13">
         <v>182</v>
@@ -3654,7 +3678,7 @@
         <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E14">
         <v>182</v>
@@ -3668,7 +3692,7 @@
         <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E15">
         <v>164</v>
@@ -3682,7 +3706,7 @@
         <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16">
         <v>164</v>
@@ -3696,7 +3720,7 @@
         <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E17">
         <v>164</v>
@@ -3710,7 +3734,7 @@
         <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E18">
         <v>164</v>
@@ -3724,7 +3748,7 @@
         <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19">
         <v>164</v>
@@ -3738,7 +3762,7 @@
         <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E20">
         <v>164</v>
@@ -3752,7 +3776,7 @@
         <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E21">
         <v>164</v>
@@ -3765,6 +3789,12 @@
       <c r="B22" t="s">
         <v>267</v>
       </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22">
+        <v>144</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -3774,7 +3804,7 @@
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3787,42 +3817,42 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" t="s">
         <v>328</v>
-      </c>
-      <c r="E25" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" t="s">
         <v>330</v>
-      </c>
-      <c r="E26" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" t="s">
         <v>332</v>
-      </c>
-      <c r="E27" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" t="s">
         <v>334</v>
-      </c>
-      <c r="E28" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" t="s">
         <v>336</v>
-      </c>
-      <c r="E29" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3833,10 +3863,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E31" t="s">
         <v>338</v>
-      </c>
-      <c r="E31" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3847,10 +3877,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" t="s">
         <v>338</v>
-      </c>
-      <c r="E32" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3861,7 +3891,7 @@
         <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33">
         <v>113</v>
@@ -3875,7 +3905,7 @@
         <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34">
         <v>113</v>
@@ -3889,7 +3919,7 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35">
         <v>113</v>
@@ -3903,10 +3933,10 @@
         <v>139</v>
       </c>
       <c r="C36" t="s">
+        <v>452</v>
+      </c>
+      <c r="E36" t="s">
         <v>453</v>
-      </c>
-      <c r="E36" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3917,10 +3947,10 @@
         <v>260</v>
       </c>
       <c r="C37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" t="s">
         <v>453</v>
-      </c>
-      <c r="E37" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3931,10 +3961,10 @@
         <v>261</v>
       </c>
       <c r="C38" t="s">
+        <v>452</v>
+      </c>
+      <c r="E38" t="s">
         <v>453</v>
-      </c>
-      <c r="E38" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3945,10 +3975,10 @@
         <v>291</v>
       </c>
       <c r="C39" t="s">
+        <v>452</v>
+      </c>
+      <c r="E39" t="s">
         <v>453</v>
-      </c>
-      <c r="E39" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3959,7 +3989,7 @@
         <v>240</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E40">
         <v>192</v>
@@ -3973,7 +4003,7 @@
         <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E41">
         <v>192</v>
@@ -3987,7 +4017,7 @@
         <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E42">
         <v>192</v>
@@ -3995,10 +4025,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E44" t="s">
         <v>438</v>
-      </c>
-      <c r="E44" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4009,7 +4039,7 @@
         <v>313</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E45">
         <v>216</v>
@@ -4023,7 +4053,7 @@
         <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E46">
         <v>216</v>
@@ -4037,7 +4067,7 @@
         <v>311</v>
       </c>
       <c r="C47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E47">
         <v>216</v>
@@ -4048,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -4067,7 +4097,7 @@
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E50">
         <v>94</v>
@@ -4081,7 +4111,7 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E51">
         <v>94</v>
@@ -4095,7 +4125,7 @@
         <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E52">
         <v>193</v>
@@ -4109,7 +4139,7 @@
         <v>229</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E53">
         <v>193</v>
@@ -4293,7 +4323,7 @@
         <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4328,7 +4358,7 @@
         <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E71">
         <v>173</v>
@@ -4342,7 +4372,7 @@
         <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E72">
         <v>173</v>
@@ -4366,18 +4396,18 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" t="s">
         <v>349</v>
-      </c>
-      <c r="E78" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79" t="s">
         <v>351</v>
-      </c>
-      <c r="E79" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -4388,7 +4418,7 @@
         <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E80">
         <v>187</v>
@@ -4402,7 +4432,7 @@
         <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E81">
         <v>187</v>
@@ -4416,7 +4446,7 @@
         <v>259</v>
       </c>
       <c r="C82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E82">
         <v>187</v>
@@ -4427,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E83" t="s">
         <v>353</v>
-      </c>
-      <c r="E83" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4438,10 +4468,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E84" t="s">
         <v>355</v>
-      </c>
-      <c r="E84" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4451,8 +4481,8 @@
       <c r="B85" t="s">
         <v>31</v>
       </c>
-      <c r="C85" t="s">
-        <v>357</v>
+      <c r="D85" t="s">
+        <v>356</v>
       </c>
       <c r="E85">
         <v>85</v>
@@ -4465,8 +4495,8 @@
       <c r="B86" t="s">
         <v>29</v>
       </c>
-      <c r="C86" t="s">
-        <v>357</v>
+      <c r="D86" t="s">
+        <v>356</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -4479,10 +4509,10 @@
       <c r="B87" t="s">
         <v>32</v>
       </c>
-      <c r="C87" t="s">
-        <v>357</v>
-      </c>
-      <c r="E87">
+      <c r="C87" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E87" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4493,10 +4523,10 @@
       <c r="B88" t="s">
         <v>30</v>
       </c>
-      <c r="C88" t="s">
-        <v>357</v>
-      </c>
-      <c r="E88">
+      <c r="C88" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4507,10 +4537,10 @@
       <c r="B89" t="s">
         <v>97</v>
       </c>
-      <c r="C89" t="s">
-        <v>357</v>
-      </c>
-      <c r="E89">
+      <c r="C89" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4521,10 +4551,10 @@
       <c r="B90" t="s">
         <v>55</v>
       </c>
-      <c r="C90" t="s">
-        <v>357</v>
-      </c>
-      <c r="E90">
+      <c r="C90" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E90" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4535,10 +4565,10 @@
       <c r="B91" t="s">
         <v>72</v>
       </c>
-      <c r="C91" t="s">
-        <v>357</v>
-      </c>
-      <c r="E91">
+      <c r="C91" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4549,10 +4579,10 @@
       <c r="B92" t="s">
         <v>50</v>
       </c>
-      <c r="C92" t="s">
-        <v>357</v>
-      </c>
-      <c r="E92">
+      <c r="C92" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4563,10 +4593,10 @@
       <c r="B93" t="s">
         <v>98</v>
       </c>
-      <c r="C93" t="s">
-        <v>357</v>
-      </c>
-      <c r="E93">
+      <c r="C93" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" s="9">
         <v>85</v>
       </c>
     </row>
@@ -4580,10 +4610,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95" t="s">
         <v>359</v>
-      </c>
-      <c r="E95" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -4591,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" t="s">
         <v>361</v>
-      </c>
-      <c r="E96" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4605,13 +4635,13 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4622,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E98">
         <v>96</v>
@@ -4636,7 +4666,7 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E99">
         <v>96</v>
@@ -4650,7 +4680,7 @@
         <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E100">
         <v>96</v>
@@ -4664,13 +4694,13 @@
         <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E101">
         <v>96</v>
       </c>
       <c r="F101" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4681,7 +4711,7 @@
         <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E102">
         <v>96</v>
@@ -4695,7 +4725,7 @@
         <v>69</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E103">
         <v>96</v>
@@ -4709,7 +4739,7 @@
         <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E104">
         <v>96</v>
@@ -4723,7 +4753,7 @@
         <v>68</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E105">
         <v>96</v>
@@ -4739,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E107">
         <v>1041</v>
@@ -4753,7 +4783,7 @@
         <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -4767,7 +4797,7 @@
         <v>78</v>
       </c>
       <c r="C109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E109">
         <v>107</v>
@@ -4781,7 +4811,7 @@
         <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E110">
         <v>107</v>
@@ -4795,7 +4825,7 @@
         <v>94</v>
       </c>
       <c r="C111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E111">
         <v>107</v>
@@ -4803,10 +4833,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D113" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E113" t="s">
         <v>366</v>
-      </c>
-      <c r="E113" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4821,8 +4851,14 @@
       <c r="B115" t="s">
         <v>283</v>
       </c>
+      <c r="D115" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115">
+        <v>144</v>
+      </c>
       <c r="F115" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4832,6 +4868,12 @@
       <c r="B116" t="s">
         <v>241</v>
       </c>
+      <c r="D116" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116">
+        <v>144</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
@@ -4841,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4851,6 +4893,9 @@
       <c r="B119" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="F119" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
@@ -4868,7 +4913,7 @@
         <v>107</v>
       </c>
       <c r="F122" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4887,7 +4932,7 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E124">
         <v>141</v>
@@ -4901,7 +4946,7 @@
         <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E125">
         <v>141</v>
@@ -4915,7 +4960,7 @@
         <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E126">
         <v>141</v>
@@ -4929,7 +4974,7 @@
         <v>314</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E127">
         <v>141</v>
@@ -4943,7 +4988,7 @@
         <v>88</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E128">
         <v>111</v>
@@ -4957,7 +5002,7 @@
         <v>81</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E129">
         <v>111</v>
@@ -4971,7 +5016,7 @@
         <v>103</v>
       </c>
       <c r="C130" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E130">
         <v>111</v>
@@ -4985,7 +5030,7 @@
         <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E131">
         <v>111</v>
@@ -4996,10 +5041,10 @@
         <v>1</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E132" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5010,7 +5055,7 @@
         <v>85</v>
       </c>
       <c r="C133" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E133">
         <v>112</v>
@@ -5024,7 +5069,7 @@
         <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E134">
         <v>112</v>
@@ -5038,7 +5083,7 @@
         <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E135">
         <v>112</v>
@@ -5052,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
+        <v>434</v>
+      </c>
+      <c r="E136" t="s">
         <v>435</v>
-      </c>
-      <c r="E136" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5066,10 +5111,10 @@
         <v>17</v>
       </c>
       <c r="D137" t="s">
+        <v>434</v>
+      </c>
+      <c r="E137" t="s">
         <v>435</v>
-      </c>
-      <c r="E137" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5080,7 +5125,7 @@
         <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E138">
         <v>130</v>
@@ -5094,7 +5139,7 @@
         <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E139">
         <v>130</v>
@@ -5108,7 +5153,7 @@
         <v>124</v>
       </c>
       <c r="C140" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E140">
         <v>138</v>
@@ -5122,7 +5167,7 @@
         <v>120</v>
       </c>
       <c r="C141" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E141">
         <v>138</v>
@@ -5136,7 +5181,7 @@
         <v>219</v>
       </c>
       <c r="C142" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E142">
         <v>138</v>
@@ -5150,7 +5195,7 @@
         <v>239</v>
       </c>
       <c r="C143" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E143">
         <v>138</v>
@@ -5158,10 +5203,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
+        <v>440</v>
+      </c>
+      <c r="E145" t="s">
         <v>441</v>
-      </c>
-      <c r="E145" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,7 +5233,7 @@
         <v>169</v>
       </c>
       <c r="C148" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E148">
         <v>143</v>
@@ -5212,21 +5257,21 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E151">
         <v>212</v>
       </c>
       <c r="F151" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
+        <v>444</v>
+      </c>
+      <c r="E152" t="s">
         <v>445</v>
-      </c>
-      <c r="E152" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5237,7 +5282,7 @@
         <v>106</v>
       </c>
       <c r="C153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E153">
         <v>125</v>
@@ -5251,7 +5296,7 @@
         <v>121</v>
       </c>
       <c r="C154" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E154">
         <v>125</v>
@@ -5265,7 +5310,7 @@
         <v>231</v>
       </c>
       <c r="C155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E155">
         <v>125</v>
@@ -5279,7 +5324,7 @@
         <v>280</v>
       </c>
       <c r="C156" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E156">
         <v>125</v>
@@ -5293,7 +5338,7 @@
         <v>253</v>
       </c>
       <c r="C157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E157">
         <v>125</v>
@@ -5307,7 +5352,7 @@
         <v>96</v>
       </c>
       <c r="C158" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E158">
         <v>125</v>
@@ -5455,10 +5500,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
+        <v>370</v>
+      </c>
+      <c r="E170" t="s">
         <v>371</v>
-      </c>
-      <c r="E170" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5469,7 +5514,7 @@
         <v>294</v>
       </c>
       <c r="C171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E171">
         <v>198</v>
@@ -5483,7 +5528,7 @@
         <v>234</v>
       </c>
       <c r="C172" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E172">
         <v>198</v>
@@ -5521,7 +5566,7 @@
         <v>67</v>
       </c>
       <c r="C176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E176">
         <v>98</v>
@@ -5535,7 +5580,7 @@
         <v>100</v>
       </c>
       <c r="C177" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E177">
         <v>98</v>
@@ -5549,7 +5594,7 @@
         <v>49</v>
       </c>
       <c r="C178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E178">
         <v>98</v>
@@ -5563,7 +5608,7 @@
         <v>190</v>
       </c>
       <c r="C179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E179">
         <v>170</v>
@@ -5577,7 +5622,7 @@
         <v>273</v>
       </c>
       <c r="C180" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E180">
         <v>170</v>
@@ -5591,7 +5636,7 @@
         <v>308</v>
       </c>
       <c r="C181" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E181">
         <v>170</v>
@@ -5605,7 +5650,7 @@
         <v>158</v>
       </c>
       <c r="C182" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E182">
         <v>170</v>
@@ -5624,10 +5669,10 @@
         <v>306</v>
       </c>
       <c r="C184" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E184" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -5638,10 +5683,10 @@
         <v>279</v>
       </c>
       <c r="C185" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E185" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -5652,10 +5697,10 @@
         <v>232</v>
       </c>
       <c r="C186" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="E186">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5666,7 +5711,7 @@
         <v>170</v>
       </c>
       <c r="C187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E187">
         <v>126</v>
@@ -5680,7 +5725,7 @@
         <v>159</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E188">
         <v>126</v>
@@ -5694,7 +5739,7 @@
         <v>200</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E189">
         <v>126</v>
@@ -5708,7 +5753,7 @@
         <v>206</v>
       </c>
       <c r="C190" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E190">
         <v>126</v>
@@ -5722,10 +5767,10 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
+        <v>378</v>
+      </c>
+      <c r="E191" t="s">
         <v>379</v>
-      </c>
-      <c r="E191" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5736,18 +5781,18 @@
         <v>116</v>
       </c>
       <c r="C192" t="s">
+        <v>378</v>
+      </c>
+      <c r="E192" t="s">
         <v>379</v>
-      </c>
-      <c r="E192" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
+        <v>375</v>
+      </c>
+      <c r="E194" t="s">
         <v>376</v>
-      </c>
-      <c r="E194" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5755,7 +5800,7 @@
         <v>170</v>
       </c>
       <c r="E195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5771,7 +5816,7 @@
         <v>119</v>
       </c>
       <c r="C198" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E198">
         <v>137</v>
@@ -5785,7 +5830,7 @@
         <v>181</v>
       </c>
       <c r="C199" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E199">
         <v>137</v>
@@ -5799,7 +5844,7 @@
         <v>285</v>
       </c>
       <c r="C200" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E200">
         <v>137</v>
@@ -5813,7 +5858,7 @@
         <v>113</v>
       </c>
       <c r="C201" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E201">
         <v>137</v>
@@ -5827,7 +5872,7 @@
         <v>138</v>
       </c>
       <c r="C202" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E202">
         <v>137</v>
@@ -5841,7 +5886,7 @@
         <v>284</v>
       </c>
       <c r="C203" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E203">
         <v>137</v>
@@ -5855,7 +5900,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E204">
         <v>185</v>
@@ -5869,7 +5914,7 @@
         <v>287</v>
       </c>
       <c r="C205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E205">
         <v>185</v>
@@ -5883,7 +5928,7 @@
         <v>192</v>
       </c>
       <c r="C206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E206">
         <v>185</v>
@@ -5897,7 +5942,7 @@
         <v>150</v>
       </c>
       <c r="C207" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E207">
         <v>151</v>
@@ -5911,7 +5956,7 @@
         <v>277</v>
       </c>
       <c r="C208" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E208">
         <v>151</v>
@@ -5925,7 +5970,7 @@
         <v>286</v>
       </c>
       <c r="C209" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E209">
         <v>151</v>
@@ -5939,7 +5984,7 @@
         <v>226</v>
       </c>
       <c r="C210" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E210">
         <v>151</v>
@@ -5947,26 +5992,26 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
+        <v>383</v>
+      </c>
+      <c r="E212" t="s">
         <v>384</v>
-      </c>
-      <c r="E212" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D213" t="s">
+        <v>385</v>
+      </c>
+      <c r="E213" t="s">
         <v>386</v>
-      </c>
-      <c r="E213" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D214" t="s">
+        <v>387</v>
+      </c>
+      <c r="E214" t="s">
         <v>388</v>
-      </c>
-      <c r="E214" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5977,7 +6022,7 @@
         <v>89</v>
       </c>
       <c r="C215" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E215">
         <v>119</v>
@@ -5991,7 +6036,7 @@
         <v>177</v>
       </c>
       <c r="C216" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E216">
         <v>119</v>
@@ -6005,7 +6050,7 @@
         <v>104</v>
       </c>
       <c r="C217" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E217">
         <v>119</v>
@@ -6019,7 +6064,7 @@
         <v>110</v>
       </c>
       <c r="C218" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E218">
         <v>119</v>
@@ -6033,7 +6078,7 @@
         <v>133</v>
       </c>
       <c r="C219" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E219">
         <v>119</v>
@@ -6047,7 +6092,7 @@
         <v>90</v>
       </c>
       <c r="C220" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E220">
         <v>119</v>
@@ -6061,7 +6106,7 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -6090,10 +6135,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D225" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E225" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6104,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
+        <v>389</v>
+      </c>
+      <c r="E227" t="s">
         <v>390</v>
-      </c>
-      <c r="E227" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -6118,7 +6163,7 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E228">
         <v>71</v>
@@ -6132,7 +6177,7 @@
         <v>56</v>
       </c>
       <c r="C229" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E229">
         <v>71</v>
@@ -6146,10 +6191,10 @@
         <v>65</v>
       </c>
       <c r="C230" t="s">
+        <v>392</v>
+      </c>
+      <c r="E230" t="s">
         <v>393</v>
-      </c>
-      <c r="E230" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6160,10 +6205,10 @@
         <v>79</v>
       </c>
       <c r="C231" t="s">
+        <v>392</v>
+      </c>
+      <c r="E231" t="s">
         <v>393</v>
-      </c>
-      <c r="E231" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -6182,7 +6227,7 @@
         <v>53</v>
       </c>
       <c r="C233" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E233">
         <v>95</v>
@@ -6196,7 +6241,7 @@
         <v>118</v>
       </c>
       <c r="C234" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E234">
         <v>95</v>
@@ -6210,7 +6255,7 @@
         <v>42</v>
       </c>
       <c r="C235" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E235">
         <v>95</v>
@@ -6224,7 +6269,7 @@
         <v>80</v>
       </c>
       <c r="C236" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E236">
         <v>95</v>
@@ -6238,7 +6283,7 @@
         <v>45</v>
       </c>
       <c r="C237" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E237">
         <v>93</v>
@@ -6252,7 +6297,7 @@
         <v>60</v>
       </c>
       <c r="C238" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E238">
         <v>93</v>
@@ -6266,7 +6311,7 @@
         <v>41</v>
       </c>
       <c r="C239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E239">
         <v>93</v>
@@ -6280,7 +6325,7 @@
         <v>102</v>
       </c>
       <c r="C240" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E240">
         <v>123</v>
@@ -6294,7 +6339,7 @@
         <v>111</v>
       </c>
       <c r="C241" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E241">
         <v>123</v>
@@ -6308,7 +6353,7 @@
         <v>95</v>
       </c>
       <c r="C242" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E242">
         <v>123</v>
@@ -6322,7 +6367,7 @@
         <v>108</v>
       </c>
       <c r="C243" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E243">
         <v>123</v>
@@ -6336,7 +6381,7 @@
         <v>115</v>
       </c>
       <c r="C244" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E244">
         <v>123</v>
@@ -6350,13 +6395,13 @@
         <v>105</v>
       </c>
       <c r="C245" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E245">
         <v>123</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -6367,7 +6412,7 @@
         <v>137</v>
       </c>
       <c r="C246" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E246">
         <v>123</v>
@@ -6381,7 +6426,7 @@
         <v>134</v>
       </c>
       <c r="C247" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E247">
         <v>123</v>
@@ -6395,7 +6440,7 @@
         <v>186</v>
       </c>
       <c r="C248" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E248">
         <v>123</v>
@@ -6409,7 +6454,7 @@
         <v>156</v>
       </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E249">
         <v>123</v>
@@ -6423,7 +6468,7 @@
         <v>147</v>
       </c>
       <c r="C250" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E250">
         <v>123</v>
@@ -6437,7 +6482,7 @@
         <v>131</v>
       </c>
       <c r="C251" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E251">
         <v>142</v>
@@ -6451,7 +6496,7 @@
         <v>125</v>
       </c>
       <c r="C252" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E252">
         <v>142</v>
@@ -6465,7 +6510,7 @@
         <v>145</v>
       </c>
       <c r="C253" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E253">
         <v>142</v>
@@ -6481,10 +6526,10 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
+        <v>398</v>
+      </c>
+      <c r="E255" t="s">
         <v>399</v>
-      </c>
-      <c r="E255" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,7 +6564,7 @@
         <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E259">
         <v>205</v>
@@ -6533,7 +6578,7 @@
         <v>245</v>
       </c>
       <c r="C260" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E260">
         <v>205</v>
@@ -6563,7 +6608,7 @@
         <v>44</v>
       </c>
       <c r="C263" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E263">
         <v>73</v>
@@ -6585,7 +6630,7 @@
         <v>180</v>
       </c>
       <c r="C265" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E265">
         <v>159</v>
@@ -6599,7 +6644,7 @@
         <v>269</v>
       </c>
       <c r="C266" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E266">
         <v>159</v>
@@ -6613,7 +6658,7 @@
         <v>225</v>
       </c>
       <c r="C267" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E267">
         <v>159</v>
@@ -6627,7 +6672,7 @@
         <v>173</v>
       </c>
       <c r="C268" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E268">
         <v>159</v>
@@ -6641,7 +6686,7 @@
         <v>275</v>
       </c>
       <c r="C269" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E269">
         <v>159</v>
@@ -6655,7 +6700,7 @@
         <v>201</v>
       </c>
       <c r="C270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E270">
         <v>159</v>
@@ -6671,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="D272" t="s">
+        <v>448</v>
+      </c>
+      <c r="E272" t="s">
         <v>449</v>
-      </c>
-      <c r="E272" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -6722,10 +6767,10 @@
         <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E278" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -6736,10 +6781,10 @@
         <v>303</v>
       </c>
       <c r="C279" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E279" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -6750,10 +6795,10 @@
         <v>304</v>
       </c>
       <c r="C280" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E280" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -6764,10 +6809,10 @@
         <v>302</v>
       </c>
       <c r="C281" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E281" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -6844,10 +6889,10 @@
         <v>305</v>
       </c>
       <c r="C291" t="s">
+        <v>450</v>
+      </c>
+      <c r="E291" t="s">
         <v>451</v>
-      </c>
-      <c r="E291" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -6858,10 +6903,10 @@
         <v>301</v>
       </c>
       <c r="C292" t="s">
+        <v>450</v>
+      </c>
+      <c r="E292" t="s">
         <v>451</v>
-      </c>
-      <c r="E292" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -6872,7 +6917,7 @@
         <v>129</v>
       </c>
       <c r="C293" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E293">
         <v>122</v>
@@ -6886,7 +6931,7 @@
         <v>164</v>
       </c>
       <c r="C294" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E294">
         <v>122</v>
@@ -6900,7 +6945,7 @@
         <v>127</v>
       </c>
       <c r="C295" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E295">
         <v>122</v>
@@ -6914,7 +6959,7 @@
         <v>153</v>
       </c>
       <c r="C296" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E296">
         <v>122</v>
@@ -6928,7 +6973,7 @@
         <v>154</v>
       </c>
       <c r="C297" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E297">
         <v>122</v>
@@ -6936,58 +6981,58 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D299" t="s">
+        <v>403</v>
+      </c>
+      <c r="E299" t="s">
         <v>404</v>
-      </c>
-      <c r="E299" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
+        <v>405</v>
+      </c>
+      <c r="E300" t="s">
         <v>406</v>
-      </c>
-      <c r="E300" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
+        <v>407</v>
+      </c>
+      <c r="E301" t="s">
         <v>408</v>
-      </c>
-      <c r="E301" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
+        <v>409</v>
+      </c>
+      <c r="E302" t="s">
         <v>410</v>
-      </c>
-      <c r="E302" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D303" t="s">
+        <v>411</v>
+      </c>
+      <c r="E303" t="s">
         <v>412</v>
-      </c>
-      <c r="E303" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D304" t="s">
+        <v>413</v>
+      </c>
+      <c r="E304" t="s">
         <v>414</v>
-      </c>
-      <c r="E304" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
+        <v>415</v>
+      </c>
+      <c r="E305" t="s">
         <v>416</v>
-      </c>
-      <c r="E305" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -7062,7 +7107,7 @@
         <v>165</v>
       </c>
       <c r="C314" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E314">
         <v>172</v>
@@ -7076,7 +7121,7 @@
         <v>161</v>
       </c>
       <c r="C315" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E315">
         <v>172</v>
@@ -7087,10 +7132,10 @@
         <v>1</v>
       </c>
       <c r="D316" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E316" t="s">
         <v>346</v>
-      </c>
-      <c r="E316" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -7196,10 +7241,10 @@
         <v>12</v>
       </c>
       <c r="D324" t="s">
+        <v>417</v>
+      </c>
+      <c r="E324" t="s">
         <v>418</v>
-      </c>
-      <c r="E324" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -7210,10 +7255,10 @@
         <v>114</v>
       </c>
       <c r="D325" t="s">
+        <v>417</v>
+      </c>
+      <c r="E325" t="s">
         <v>418</v>
-      </c>
-      <c r="E325" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7248,7 +7293,7 @@
         <v>271</v>
       </c>
       <c r="F329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7313,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E336" t="s">
         <v>420</v>
-      </c>
-      <c r="E336" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -7327,7 +7372,7 @@
         <v>52</v>
       </c>
       <c r="C337" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E337">
         <v>92</v>
@@ -7341,7 +7386,7 @@
         <v>168</v>
       </c>
       <c r="C338" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E338">
         <v>171</v>
@@ -7355,7 +7400,7 @@
         <v>151</v>
       </c>
       <c r="C339" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E339">
         <v>92</v>
@@ -7369,7 +7414,7 @@
         <v>71</v>
       </c>
       <c r="C340" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E340">
         <v>92</v>
@@ -7383,7 +7428,7 @@
         <v>40</v>
       </c>
       <c r="C341" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E341">
         <v>92</v>
@@ -7391,18 +7436,18 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D342" t="s">
+        <v>421</v>
+      </c>
+      <c r="E342" t="s">
         <v>422</v>
-      </c>
-      <c r="E342" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D343" t="s">
+        <v>423</v>
+      </c>
+      <c r="E343" t="s">
         <v>424</v>
-      </c>
-      <c r="E343" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -7505,10 +7550,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D351" t="s">
+        <v>426</v>
+      </c>
+      <c r="E351" t="s">
         <v>427</v>
-      </c>
-      <c r="E351" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7519,7 +7564,7 @@
         <v>126</v>
       </c>
       <c r="C353" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E353">
         <v>99</v>
@@ -7533,7 +7578,7 @@
         <v>135</v>
       </c>
       <c r="C354" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E354">
         <v>99</v>
@@ -7547,7 +7592,7 @@
         <v>160</v>
       </c>
       <c r="C355" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E355">
         <v>99</v>
@@ -7561,7 +7606,7 @@
         <v>198</v>
       </c>
       <c r="C356" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E356">
         <v>99</v>
@@ -7575,7 +7620,7 @@
         <v>182</v>
       </c>
       <c r="C357" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E357">
         <v>99</v>
@@ -7589,7 +7634,7 @@
         <v>197</v>
       </c>
       <c r="C358" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E358">
         <v>99</v>
@@ -7603,7 +7648,7 @@
         <v>146</v>
       </c>
       <c r="C359" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E359">
         <v>99</v>
@@ -7617,7 +7662,7 @@
         <v>175</v>
       </c>
       <c r="C360" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E360">
         <v>99</v>
@@ -7631,7 +7676,7 @@
         <v>144</v>
       </c>
       <c r="C361" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E361">
         <v>99</v>
@@ -7645,7 +7690,7 @@
         <v>188</v>
       </c>
       <c r="C362" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E362">
         <v>99</v>
@@ -7739,10 +7784,10 @@
         <v>9</v>
       </c>
       <c r="C373" t="s">
+        <v>428</v>
+      </c>
+      <c r="E373" t="s">
         <v>429</v>
-      </c>
-      <c r="E373" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -7753,10 +7798,10 @@
         <v>8</v>
       </c>
       <c r="C374" t="s">
+        <v>430</v>
+      </c>
+      <c r="E374" t="s">
         <v>431</v>
-      </c>
-      <c r="E374" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -7767,15 +7812,15 @@
         <v>51</v>
       </c>
       <c r="C375" t="s">
+        <v>430</v>
+      </c>
+      <c r="E375" t="s">
         <v>431</v>
-      </c>
-      <c r="E375" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D377" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E377">
         <v>123</v>
@@ -7789,7 +7834,7 @@
         <v>217</v>
       </c>
       <c r="C378" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E378">
         <v>183</v>
@@ -7803,7 +7848,7 @@
         <v>187</v>
       </c>
       <c r="C379" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E379">
         <v>183</v>
@@ -7817,7 +7862,7 @@
         <v>268</v>
       </c>
       <c r="C380" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E380">
         <v>183</v>
@@ -7831,7 +7876,7 @@
         <v>292</v>
       </c>
       <c r="C381" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E381">
         <v>183</v>
@@ -7882,10 +7927,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" t="s">
         <v>368</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7965,7 +8010,7 @@
         <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7973,7 +8018,7 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7981,7 +8026,7 @@
         <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7989,7 +8034,7 @@
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7997,7 +8042,7 @@
         <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8005,7 +8050,7 @@
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8013,7 +8058,7 @@
         <v>289</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8021,7 +8066,7 @@
         <v>254</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8029,7 +8074,7 @@
         <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8037,7 +8082,7 @@
         <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8045,7 +8090,7 @@
         <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8065,27 +8110,27 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8093,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8101,7 +8146,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8109,7 +8154,7 @@
         <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,7 +8162,7 @@
         <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8125,7 +8170,7 @@
         <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8133,7 +8178,7 @@
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8141,7 +8186,7 @@
         <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8149,7 +8194,7 @@
         <v>261</v>
       </c>
       <c r="B38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8157,7 +8202,7 @@
         <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8165,7 +8210,7 @@
         <v>240</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8173,7 +8218,7 @@
         <v>211</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -8181,12 +8226,12 @@
         <v>243</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8194,7 +8239,7 @@
         <v>313</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -8202,7 +8247,7 @@
         <v>310</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -8210,12 +8255,12 @@
         <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8223,7 +8268,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8231,7 +8276,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8239,7 +8284,7 @@
         <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8247,7 +8292,7 @@
         <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8373,7 +8418,7 @@
         <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -8381,7 +8426,7 @@
         <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -8396,12 +8441,12 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -8409,7 +8454,7 @@
         <v>214</v>
       </c>
       <c r="B80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -8417,7 +8462,7 @@
         <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -8425,17 +8470,17 @@
         <v>259</v>
       </c>
       <c r="B82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -8443,7 +8488,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -8451,7 +8496,7 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -8459,7 +8504,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -8467,7 +8512,7 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -8475,7 +8520,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -8483,7 +8528,7 @@
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -8491,7 +8536,7 @@
         <v>72</v>
       </c>
       <c r="B91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -8499,7 +8544,7 @@
         <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -8507,17 +8552,17 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -8525,7 +8570,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -8533,7 +8578,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -8541,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -8549,7 +8594,7 @@
         <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -8557,7 +8602,7 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8565,7 +8610,7 @@
         <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -8573,7 +8618,7 @@
         <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8581,7 +8626,7 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8589,12 +8634,12 @@
         <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8602,7 +8647,7 @@
         <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8610,7 +8655,7 @@
         <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8618,7 +8663,7 @@
         <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8626,12 +8671,12 @@
         <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8679,7 +8724,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8687,7 +8732,7 @@
         <v>117</v>
       </c>
       <c r="B125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8695,7 +8740,7 @@
         <v>212</v>
       </c>
       <c r="B126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -8703,7 +8748,7 @@
         <v>314</v>
       </c>
       <c r="B127" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8711,7 +8756,7 @@
         <v>88</v>
       </c>
       <c r="B128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8719,7 +8764,7 @@
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8727,7 +8772,7 @@
         <v>103</v>
       </c>
       <c r="B130" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8735,12 +8780,12 @@
         <v>101</v>
       </c>
       <c r="B131" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8748,7 +8793,7 @@
         <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8756,7 +8801,7 @@
         <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8764,7 +8809,7 @@
         <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8772,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8780,7 +8825,7 @@
         <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8788,7 +8833,7 @@
         <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8796,7 +8841,7 @@
         <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8804,7 +8849,7 @@
         <v>124</v>
       </c>
       <c r="B140" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8812,7 +8857,7 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8820,7 +8865,7 @@
         <v>219</v>
       </c>
       <c r="B142" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8828,12 +8873,12 @@
         <v>239</v>
       </c>
       <c r="B143" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -8851,7 +8896,7 @@
         <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -8866,12 +8911,12 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -8879,7 +8924,7 @@
         <v>106</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -8887,7 +8932,7 @@
         <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -8895,7 +8940,7 @@
         <v>231</v>
       </c>
       <c r="B155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -8903,7 +8948,7 @@
         <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -8911,7 +8956,7 @@
         <v>253</v>
       </c>
       <c r="B157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -8919,7 +8964,7 @@
         <v>96</v>
       </c>
       <c r="B158" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -9004,7 +9049,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -9012,7 +9057,7 @@
         <v>294</v>
       </c>
       <c r="B171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -9020,7 +9065,7 @@
         <v>234</v>
       </c>
       <c r="B172" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -9043,7 +9088,7 @@
         <v>67</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -9051,7 +9096,7 @@
         <v>100</v>
       </c>
       <c r="B177" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -9059,7 +9104,7 @@
         <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -9067,7 +9112,7 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -9075,7 +9120,7 @@
         <v>273</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -9083,7 +9128,7 @@
         <v>308</v>
       </c>
       <c r="B181" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -9091,7 +9136,7 @@
         <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -9104,7 +9149,7 @@
         <v>306</v>
       </c>
       <c r="B184" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -9112,7 +9157,7 @@
         <v>279</v>
       </c>
       <c r="B185" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -9120,7 +9165,7 @@
         <v>232</v>
       </c>
       <c r="B186" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -9128,7 +9173,7 @@
         <v>170</v>
       </c>
       <c r="B187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -9136,7 +9181,7 @@
         <v>159</v>
       </c>
       <c r="B188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -9144,7 +9189,7 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -9152,7 +9197,7 @@
         <v>206</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -9160,7 +9205,7 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -9168,12 +9213,12 @@
         <v>116</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9191,7 +9236,7 @@
         <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -9199,7 +9244,7 @@
         <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -9207,7 +9252,7 @@
         <v>285</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -9215,7 +9260,7 @@
         <v>113</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -9223,7 +9268,7 @@
         <v>138</v>
       </c>
       <c r="B202" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -9231,7 +9276,7 @@
         <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -9239,7 +9284,7 @@
         <v>216</v>
       </c>
       <c r="B204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9247,7 +9292,7 @@
         <v>287</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -9255,7 +9300,7 @@
         <v>192</v>
       </c>
       <c r="B206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -9263,7 +9308,7 @@
         <v>150</v>
       </c>
       <c r="B207" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -9271,7 +9316,7 @@
         <v>277</v>
       </c>
       <c r="B208" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -9279,7 +9324,7 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -9287,22 +9332,22 @@
         <v>226</v>
       </c>
       <c r="B210" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -9310,7 +9355,7 @@
         <v>89</v>
       </c>
       <c r="B215" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -9318,7 +9363,7 @@
         <v>177</v>
       </c>
       <c r="B216" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -9326,7 +9371,7 @@
         <v>104</v>
       </c>
       <c r="B217" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -9334,7 +9379,7 @@
         <v>110</v>
       </c>
       <c r="B218" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -9342,7 +9387,7 @@
         <v>133</v>
       </c>
       <c r="B219" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -9350,7 +9395,7 @@
         <v>90</v>
       </c>
       <c r="B220" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -9375,7 +9420,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -9383,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -9391,7 +9436,7 @@
         <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -9399,7 +9444,7 @@
         <v>56</v>
       </c>
       <c r="B229" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -9407,7 +9452,7 @@
         <v>65</v>
       </c>
       <c r="B230" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -9415,7 +9460,7 @@
         <v>79</v>
       </c>
       <c r="B231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -9428,7 +9473,7 @@
         <v>53</v>
       </c>
       <c r="B233" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -9436,7 +9481,7 @@
         <v>118</v>
       </c>
       <c r="B234" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -9444,7 +9489,7 @@
         <v>42</v>
       </c>
       <c r="B235" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -9452,7 +9497,7 @@
         <v>80</v>
       </c>
       <c r="B236" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -9460,7 +9505,7 @@
         <v>45</v>
       </c>
       <c r="B237" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -9468,7 +9513,7 @@
         <v>60</v>
       </c>
       <c r="B238" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -9476,7 +9521,7 @@
         <v>41</v>
       </c>
       <c r="B239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -9484,7 +9529,7 @@
         <v>102</v>
       </c>
       <c r="B240" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -9492,7 +9537,7 @@
         <v>111</v>
       </c>
       <c r="B241" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -9500,7 +9545,7 @@
         <v>95</v>
       </c>
       <c r="B242" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -9508,7 +9553,7 @@
         <v>108</v>
       </c>
       <c r="B243" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -9516,7 +9561,7 @@
         <v>115</v>
       </c>
       <c r="B244" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -9524,7 +9569,7 @@
         <v>105</v>
       </c>
       <c r="B245" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -9532,7 +9577,7 @@
         <v>137</v>
       </c>
       <c r="B246" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -9540,7 +9585,7 @@
         <v>134</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -9548,7 +9593,7 @@
         <v>186</v>
       </c>
       <c r="B248" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -9556,7 +9601,7 @@
         <v>156</v>
       </c>
       <c r="B249" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9564,7 +9609,7 @@
         <v>147</v>
       </c>
       <c r="B250" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9572,7 +9617,7 @@
         <v>131</v>
       </c>
       <c r="B251" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9580,7 +9625,7 @@
         <v>125</v>
       </c>
       <c r="B252" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -9588,12 +9633,12 @@
         <v>145</v>
       </c>
       <c r="B253" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -9616,7 +9661,7 @@
         <v>249</v>
       </c>
       <c r="B259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -9624,7 +9669,7 @@
         <v>245</v>
       </c>
       <c r="B260" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -9642,7 +9687,7 @@
         <v>44</v>
       </c>
       <c r="B263" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -9655,7 +9700,7 @@
         <v>180</v>
       </c>
       <c r="B265" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -9663,7 +9708,7 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -9671,7 +9716,7 @@
         <v>225</v>
       </c>
       <c r="B267" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -9679,7 +9724,7 @@
         <v>173</v>
       </c>
       <c r="B268" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -9687,7 +9732,7 @@
         <v>275</v>
       </c>
       <c r="B269" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -9695,12 +9740,12 @@
         <v>201</v>
       </c>
       <c r="B270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -9728,7 +9773,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -9736,7 +9781,7 @@
         <v>303</v>
       </c>
       <c r="B279" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -9744,7 +9789,7 @@
         <v>304</v>
       </c>
       <c r="B280" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -9752,7 +9797,7 @@
         <v>302</v>
       </c>
       <c r="B281" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -9795,7 +9840,7 @@
         <v>305</v>
       </c>
       <c r="B291" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -9803,7 +9848,7 @@
         <v>301</v>
       </c>
       <c r="B292" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -9811,7 +9856,7 @@
         <v>129</v>
       </c>
       <c r="B293" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -9819,7 +9864,7 @@
         <v>164</v>
       </c>
       <c r="B294" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -9827,7 +9872,7 @@
         <v>127</v>
       </c>
       <c r="B295" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,7 +9880,7 @@
         <v>153</v>
       </c>
       <c r="B296" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -9843,42 +9888,42 @@
         <v>154</v>
       </c>
       <c r="B297" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -9926,7 +9971,7 @@
         <v>165</v>
       </c>
       <c r="B314" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -9934,12 +9979,12 @@
         <v>161</v>
       </c>
       <c r="B315" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -10000,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="C324" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -10008,7 +10053,7 @@
         <v>114</v>
       </c>
       <c r="C325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -10064,7 +10109,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -10072,7 +10117,7 @@
         <v>52</v>
       </c>
       <c r="B337" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -10080,7 +10125,7 @@
         <v>168</v>
       </c>
       <c r="B338" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -10088,7 +10133,7 @@
         <v>151</v>
       </c>
       <c r="B339" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -10096,7 +10141,7 @@
         <v>71</v>
       </c>
       <c r="B340" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -10104,17 +10149,17 @@
         <v>40</v>
       </c>
       <c r="B341" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -10175,7 +10220,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -10183,7 +10228,7 @@
         <v>126</v>
       </c>
       <c r="B353" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -10191,7 +10236,7 @@
         <v>135</v>
       </c>
       <c r="B354" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -10199,7 +10244,7 @@
         <v>160</v>
       </c>
       <c r="B355" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -10207,7 +10252,7 @@
         <v>198</v>
       </c>
       <c r="B356" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -10215,7 +10260,7 @@
         <v>182</v>
       </c>
       <c r="B357" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -10223,7 +10268,7 @@
         <v>197</v>
       </c>
       <c r="B358" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -10231,7 +10276,7 @@
         <v>146</v>
       </c>
       <c r="B359" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -10239,7 +10284,7 @@
         <v>175</v>
       </c>
       <c r="B360" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -10247,7 +10292,7 @@
         <v>144</v>
       </c>
       <c r="B361" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -10255,7 +10300,7 @@
         <v>188</v>
       </c>
       <c r="B362" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -10313,7 +10358,7 @@
         <v>9</v>
       </c>
       <c r="B373" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -10321,7 +10366,7 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -10329,12 +10374,12 @@
         <v>51</v>
       </c>
       <c r="B375" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C377" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -10342,7 +10387,7 @@
         <v>217</v>
       </c>
       <c r="B378" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -10350,7 +10395,7 @@
         <v>187</v>
       </c>
       <c r="B379" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -10358,7 +10403,7 @@
         <v>268</v>
       </c>
       <c r="B380" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -10366,7 +10411,7 @@
         <v>292</v>
       </c>
       <c r="B381" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
